--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Inhba-Acvr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Inhba-Acvr1b.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3965436666666666</v>
+        <v>0.1050873333333333</v>
       </c>
       <c r="H2">
-        <v>1.189631</v>
+        <v>0.315262</v>
       </c>
       <c r="I2">
-        <v>0.09997914073966499</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="J2">
-        <v>0.099979140739665</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.548026</v>
+        <v>3.063353333333333</v>
       </c>
       <c r="N2">
-        <v>7.644078</v>
+        <v>9.190059999999999</v>
       </c>
       <c r="O2">
-        <v>0.1809961777378536</v>
+        <v>0.1884019917097105</v>
       </c>
       <c r="P2">
-        <v>0.1809961777378536</v>
+        <v>0.1884019917097105</v>
       </c>
       <c r="Q2">
-        <v>1.010403572802</v>
+        <v>0.3219196328577777</v>
       </c>
       <c r="R2">
-        <v>9.093632155218</v>
+        <v>2.89727669572</v>
       </c>
       <c r="S2">
-        <v>0.01809584232739428</v>
+        <v>0.005711282362790804</v>
       </c>
       <c r="T2">
-        <v>0.01809584232739429</v>
+        <v>0.005711282362790804</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3965436666666666</v>
+        <v>0.1050873333333333</v>
       </c>
       <c r="H3">
-        <v>1.189631</v>
+        <v>0.315262</v>
       </c>
       <c r="I3">
-        <v>0.09997914073966499</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="J3">
-        <v>0.099979140739665</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>20.272974</v>
       </c>
       <c r="O3">
-        <v>0.4800226796977849</v>
+        <v>0.4156086771445645</v>
       </c>
       <c r="P3">
-        <v>0.4800226796977849</v>
+        <v>0.4156086771445645</v>
       </c>
       <c r="Q3">
-        <v>2.679706481399333</v>
+        <v>0.7101442587986665</v>
       </c>
       <c r="R3">
-        <v>24.11735833259399</v>
+        <v>6.391298329187999</v>
       </c>
       <c r="S3">
-        <v>0.04799225505173597</v>
+        <v>0.01259890347261242</v>
       </c>
       <c r="T3">
-        <v>0.04799225505173597</v>
+        <v>0.01259890347261242</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3965436666666666</v>
+        <v>0.1050873333333333</v>
       </c>
       <c r="H4">
-        <v>1.189631</v>
+        <v>0.315262</v>
       </c>
       <c r="I4">
-        <v>0.09997914073966499</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="J4">
-        <v>0.099979140739665</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.525989333333333</v>
+        <v>3.493414666666666</v>
       </c>
       <c r="N4">
-        <v>4.577968</v>
+        <v>10.480244</v>
       </c>
       <c r="O4">
-        <v>0.108396945950343</v>
+        <v>0.214851572590793</v>
       </c>
       <c r="P4">
-        <v>0.108396945950343</v>
+        <v>0.214851572590793</v>
       </c>
       <c r="Q4">
-        <v>0.6051214055342222</v>
+        <v>0.3671136315475555</v>
       </c>
       <c r="R4">
-        <v>5.446092649808</v>
+        <v>3.304022683927999</v>
       </c>
       <c r="S4">
-        <v>0.0108374335149192</v>
+        <v>0.006513083996725173</v>
       </c>
       <c r="T4">
-        <v>0.01083743351491921</v>
+        <v>0.006513083996725173</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3965436666666666</v>
+        <v>0.1050873333333333</v>
       </c>
       <c r="H5">
-        <v>1.189631</v>
+        <v>0.315262</v>
       </c>
       <c r="I5">
-        <v>0.09997914073966499</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="J5">
-        <v>0.099979140739665</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.246115666666666</v>
+        <v>2.945239333333333</v>
       </c>
       <c r="N5">
-        <v>9.738346999999999</v>
+        <v>8.835718</v>
       </c>
       <c r="O5">
-        <v>0.2305841966140185</v>
+        <v>0.1811377585549322</v>
       </c>
       <c r="P5">
-        <v>0.2305841966140185</v>
+        <v>0.1811377585549322</v>
       </c>
       <c r="Q5">
-        <v>1.287226608884111</v>
+        <v>0.3095073475684444</v>
       </c>
       <c r="R5">
-        <v>11.585039479957</v>
+        <v>2.785566128116</v>
       </c>
       <c r="S5">
-        <v>0.02305360984561554</v>
+        <v>0.005491071916395893</v>
       </c>
       <c r="T5">
-        <v>0.02305360984561554</v>
+        <v>0.005491071916395893</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>6.608633999999999</v>
       </c>
       <c r="I6">
-        <v>0.5554037754420784</v>
+        <v>0.6354599969768544</v>
       </c>
       <c r="J6">
-        <v>0.5554037754420785</v>
+        <v>0.6354599969768545</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.548026</v>
+        <v>3.063353333333333</v>
       </c>
       <c r="N6">
-        <v>7.644078</v>
+        <v>9.190059999999999</v>
       </c>
       <c r="O6">
-        <v>0.1809961777378536</v>
+        <v>0.1884019917097105</v>
       </c>
       <c r="P6">
-        <v>0.1809961777378536</v>
+        <v>0.1884019917097105</v>
       </c>
       <c r="Q6">
-        <v>5.612990418828</v>
+        <v>6.748193664226665</v>
       </c>
       <c r="R6">
-        <v>50.516913769452</v>
+        <v>60.73374297803999</v>
       </c>
       <c r="S6">
-        <v>0.1005259604561893</v>
+        <v>0.119721929082286</v>
       </c>
       <c r="T6">
-        <v>0.1005259604561894</v>
+        <v>0.119721929082286</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>6.608633999999999</v>
       </c>
       <c r="I7">
-        <v>0.5554037754420784</v>
+        <v>0.6354599969768544</v>
       </c>
       <c r="J7">
-        <v>0.5554037754420785</v>
+        <v>0.6354599969768545</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>20.272974</v>
       </c>
       <c r="O7">
-        <v>0.4800226796977849</v>
+        <v>0.4156086771445645</v>
       </c>
       <c r="P7">
-        <v>0.4800226796977849</v>
+        <v>0.4156086771445645</v>
       </c>
       <c r="Q7">
         <v>14.886296139724</v>
@@ -883,10 +883,10 @@
         <v>133.976665257516</v>
       </c>
       <c r="S7">
-        <v>0.2666064086019733</v>
+        <v>0.2641026887218394</v>
       </c>
       <c r="T7">
-        <v>0.2666064086019733</v>
+        <v>0.2641026887218395</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>6.608633999999999</v>
       </c>
       <c r="I8">
-        <v>0.5554037754420784</v>
+        <v>0.6354599969768544</v>
       </c>
       <c r="J8">
-        <v>0.5554037754420785</v>
+        <v>0.6354599969768545</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.525989333333333</v>
+        <v>3.493414666666666</v>
       </c>
       <c r="N8">
-        <v>4.577968</v>
+        <v>10.480244</v>
       </c>
       <c r="O8">
-        <v>0.108396945950343</v>
+        <v>0.214851572590793</v>
       </c>
       <c r="P8">
-        <v>0.108396945950343</v>
+        <v>0.214851572590793</v>
       </c>
       <c r="Q8">
-        <v>3.361568330634666</v>
+        <v>7.695566314077332</v>
       </c>
       <c r="R8">
-        <v>30.254114975712</v>
+        <v>69.26009682669599</v>
       </c>
       <c r="S8">
-        <v>0.06020407302721142</v>
+        <v>0.1365295796690177</v>
       </c>
       <c r="T8">
-        <v>0.06020407302721145</v>
+        <v>0.1365295796690177</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>6.608633999999999</v>
       </c>
       <c r="I9">
-        <v>0.5554037754420784</v>
+        <v>0.6354599969768544</v>
       </c>
       <c r="J9">
-        <v>0.5554037754420785</v>
+        <v>0.6354599969768545</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.246115666666666</v>
+        <v>2.945239333333333</v>
       </c>
       <c r="N9">
-        <v>9.738346999999999</v>
+        <v>8.835718</v>
       </c>
       <c r="O9">
-        <v>0.2305841966140185</v>
+        <v>0.1811377585549322</v>
       </c>
       <c r="P9">
-        <v>0.2305841966140185</v>
+        <v>0.1811377585549322</v>
       </c>
       <c r="Q9">
-        <v>7.150796787555332</v>
+        <v>6.488002932134665</v>
       </c>
       <c r="R9">
-        <v>64.35717108799798</v>
+        <v>58.39202638921199</v>
       </c>
       <c r="S9">
-        <v>0.1280673333567044</v>
+        <v>0.1151057995037114</v>
       </c>
       <c r="T9">
-        <v>0.1280673333567044</v>
+        <v>0.1151057995037114</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.281943</v>
+        <v>0.9666886666666668</v>
       </c>
       <c r="H10">
-        <v>3.845829</v>
+        <v>2.900066</v>
       </c>
       <c r="I10">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="J10">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.548026</v>
+        <v>3.063353333333333</v>
       </c>
       <c r="N10">
-        <v>7.644078</v>
+        <v>9.190059999999999</v>
       </c>
       <c r="O10">
-        <v>0.1809961777378536</v>
+        <v>0.1884019917097105</v>
       </c>
       <c r="P10">
-        <v>0.1809961777378536</v>
+        <v>0.1884019917097105</v>
       </c>
       <c r="Q10">
-        <v>3.266424094518</v>
+        <v>2.961308949328889</v>
       </c>
       <c r="R10">
-        <v>29.397816850662</v>
+        <v>26.65178054396</v>
       </c>
       <c r="S10">
-        <v>0.05850008549047599</v>
+        <v>0.05253755859167702</v>
       </c>
       <c r="T10">
-        <v>0.058500085490476</v>
+        <v>0.05253755859167702</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1.281943</v>
+        <v>0.9666886666666668</v>
       </c>
       <c r="H11">
-        <v>3.845829</v>
+        <v>2.900066</v>
       </c>
       <c r="I11">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="J11">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>20.272974</v>
       </c>
       <c r="O11">
-        <v>0.4800226796977849</v>
+        <v>0.4156086771445645</v>
       </c>
       <c r="P11">
-        <v>0.4800226796977849</v>
+        <v>0.4156086771445645</v>
       </c>
       <c r="Q11">
-        <v>8.662932369493999</v>
+        <v>6.532551401809333</v>
       </c>
       <c r="R11">
-        <v>77.966391325446</v>
+        <v>58.792962616284</v>
       </c>
       <c r="S11">
-        <v>0.1551489548047779</v>
+        <v>0.1158961485945189</v>
       </c>
       <c r="T11">
-        <v>0.1551489548047779</v>
+        <v>0.1158961485945189</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1.281943</v>
+        <v>0.9666886666666668</v>
       </c>
       <c r="H12">
-        <v>3.845829</v>
+        <v>2.900066</v>
       </c>
       <c r="I12">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="J12">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.525989333333333</v>
+        <v>3.493414666666666</v>
       </c>
       <c r="N12">
-        <v>4.577968</v>
+        <v>10.480244</v>
       </c>
       <c r="O12">
-        <v>0.108396945950343</v>
+        <v>0.214851572590793</v>
       </c>
       <c r="P12">
-        <v>0.108396945950343</v>
+        <v>0.214851572590793</v>
       </c>
       <c r="Q12">
-        <v>1.956231343941333</v>
+        <v>3.377044366233778</v>
       </c>
       <c r="R12">
-        <v>17.606082095472</v>
+        <v>30.393399296104</v>
       </c>
       <c r="S12">
-        <v>0.03503516308607309</v>
+        <v>0.05991325771595305</v>
       </c>
       <c r="T12">
-        <v>0.03503516308607309</v>
+        <v>0.05991325771595305</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1.281943</v>
+        <v>0.9666886666666668</v>
       </c>
       <c r="H13">
-        <v>3.845829</v>
+        <v>2.900066</v>
       </c>
       <c r="I13">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="J13">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.246115666666666</v>
+        <v>2.945239333333333</v>
       </c>
       <c r="N13">
-        <v>9.738346999999999</v>
+        <v>8.835718</v>
       </c>
       <c r="O13">
-        <v>0.2305841966140185</v>
+        <v>0.1811377585549322</v>
       </c>
       <c r="P13">
-        <v>0.2305841966140185</v>
+        <v>0.1811377585549322</v>
       </c>
       <c r="Q13">
-        <v>4.161335256073666</v>
+        <v>2.847129484154222</v>
       </c>
       <c r="R13">
-        <v>37.452017304663</v>
+        <v>25.624165357388</v>
       </c>
       <c r="S13">
-        <v>0.07452751424513464</v>
+        <v>0.05051186304817763</v>
       </c>
       <c r="T13">
-        <v>0.07452751424513465</v>
+        <v>0.05051186304817763</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.08489933333333333</v>
+        <v>0.191934</v>
       </c>
       <c r="H14">
-        <v>0.254698</v>
+        <v>0.575802</v>
       </c>
       <c r="I14">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429468</v>
       </c>
       <c r="J14">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429467</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.548026</v>
+        <v>3.063353333333333</v>
       </c>
       <c r="N14">
-        <v>7.644078</v>
+        <v>9.190059999999999</v>
       </c>
       <c r="O14">
-        <v>0.1809961777378536</v>
+        <v>0.1884019917097105</v>
       </c>
       <c r="P14">
-        <v>0.1809961777378536</v>
+        <v>0.1884019917097105</v>
       </c>
       <c r="Q14">
-        <v>0.216325708716</v>
+        <v>0.5879616586800001</v>
       </c>
       <c r="R14">
-        <v>1.946931378444</v>
+        <v>5.29165492812</v>
       </c>
       <c r="S14">
-        <v>0.003874289463793958</v>
+        <v>0.01043122167295669</v>
       </c>
       <c r="T14">
-        <v>0.003874289463793958</v>
+        <v>0.01043122167295669</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.08489933333333333</v>
+        <v>0.191934</v>
       </c>
       <c r="H15">
-        <v>0.254698</v>
+        <v>0.575802</v>
       </c>
       <c r="I15">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429468</v>
       </c>
       <c r="J15">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429467</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>20.272974</v>
       </c>
       <c r="O15">
-        <v>0.4800226796977849</v>
+        <v>0.4156086771445645</v>
       </c>
       <c r="P15">
-        <v>0.4800226796977849</v>
+        <v>0.4156086771445645</v>
       </c>
       <c r="Q15">
-        <v>0.5737206590946665</v>
+        <v>1.297024330572</v>
       </c>
       <c r="R15">
-        <v>5.163485931851999</v>
+        <v>11.673218975148</v>
       </c>
       <c r="S15">
-        <v>0.01027506123929777</v>
+        <v>0.0230109363555937</v>
       </c>
       <c r="T15">
-        <v>0.01027506123929777</v>
+        <v>0.0230109363555937</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.08489933333333333</v>
+        <v>0.191934</v>
       </c>
       <c r="H16">
-        <v>0.254698</v>
+        <v>0.575802</v>
       </c>
       <c r="I16">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429468</v>
       </c>
       <c r="J16">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429467</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.525989333333333</v>
+        <v>3.493414666666666</v>
       </c>
       <c r="N16">
-        <v>4.577968</v>
+        <v>10.480244</v>
       </c>
       <c r="O16">
-        <v>0.108396945950343</v>
+        <v>0.214851572590793</v>
       </c>
       <c r="P16">
-        <v>0.108396945950343</v>
+        <v>0.214851572590793</v>
       </c>
       <c r="Q16">
-        <v>0.1295554770737778</v>
+        <v>0.6705050506320001</v>
       </c>
       <c r="R16">
-        <v>1.165999293664</v>
+        <v>6.034545455688</v>
       </c>
       <c r="S16">
-        <v>0.002320276322139295</v>
+        <v>0.01189565120909703</v>
       </c>
       <c r="T16">
-        <v>0.002320276322139295</v>
+        <v>0.01189565120909703</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.08489933333333333</v>
+        <v>0.191934</v>
       </c>
       <c r="H17">
-        <v>0.254698</v>
+        <v>0.575802</v>
       </c>
       <c r="I17">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429468</v>
       </c>
       <c r="J17">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429467</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.246115666666666</v>
+        <v>2.945239333333333</v>
       </c>
       <c r="N17">
-        <v>9.738346999999999</v>
+        <v>8.835718</v>
       </c>
       <c r="O17">
-        <v>0.2305841966140185</v>
+        <v>0.1811377585549322</v>
       </c>
       <c r="P17">
-        <v>0.2305841966140185</v>
+        <v>0.1811377585549322</v>
       </c>
       <c r="Q17">
-        <v>0.2755930560228889</v>
+        <v>0.565291566204</v>
       </c>
       <c r="R17">
-        <v>2.480337504206</v>
+        <v>5.087624095836</v>
       </c>
       <c r="S17">
-        <v>0.004935739166563907</v>
+        <v>0.01002902408664726</v>
       </c>
       <c r="T17">
-        <v>0.004935739166563907</v>
+        <v>0.01002902408664726</v>
       </c>
     </row>
   </sheetData>
